--- a/Working/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
+++ b/Working/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starl\GW_Modelling\Course-Materials22\Assignments\HW1_BoxModel_Excel\Starter_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starl\GW_Modelling\homework-starliviakaska\Working\HW1_BoxModel_Excel\Starter_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBB46D-0AE0-454E-A88C-FA6B6179660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20E3BD1-1384-4611-8CFE-4FF0FB744CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,37 +509,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.790811161505644</c:v>
+                  <c:v>99.816885099092303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.563413442666786</c:v>
+                  <c:v>99.634226999926994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.34583966580923</c:v>
+                  <c:v>99.452193103339653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.160345040997541</c:v>
+                  <c:v>99.270897951801771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.952104721120953</c:v>
+                  <c:v>99.090399107608604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.721200356839582</c:v>
+                  <c:v>98.910697111752683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.697895185981977</c:v>
+                  <c:v>89.836515370754356</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.864492384667237</c:v>
+                  <c:v>71.86850480624112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.013972242319369</c:v>
+                  <c:v>53.901019691996233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.148609113739589</c:v>
+                  <c:v>35.933893490435949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.47606714691667</c:v>
+                  <c:v>17.966946745217975</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -873,40 +873,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>3.241837767698871E-4</c:v>
+                  <c:v>3.662298018153933E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2454795437677716E-4</c:v>
+                  <c:v>3.6531619833061769E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2544846641020028E-4</c:v>
+                  <c:v>3.6406779317468363E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7098924962337775E-4</c:v>
+                  <c:v>3.6259030307576266E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1648063975317486E-4</c:v>
+                  <c:v>3.6099768838633394E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.618087285627439E-4</c:v>
+                  <c:v>3.5940399171184372E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.651238724396314E-4</c:v>
+                  <c:v>3.5937353429696346E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6667222410517919E-4</c:v>
+                  <c:v>3.5936021129026472E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6804161138782946E-4</c:v>
+                  <c:v>3.5934970228489773E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6922905028638242E-4</c:v>
+                  <c:v>3.5934252403120565E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6952134293833336E-4</c:v>
+                  <c:v>3.593389349043595E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6952134293833342E-4</c:v>
+                  <c:v>3.593389349043595E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D7" s="7">
         <f>SUM(L9:L19)+0.5*(L8+L20)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2110,18 +2110,18 @@
       </c>
       <c r="D8" s="7">
         <f>SUM(M9:M19)+0.5*(M8+M20)</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="1">
         <f>F9+inputs!$D$8</f>
         <v>60</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <f>IF(G8=1,+inputs!$D$11,+IF(G8=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I8" s="2">
         <f>inputs!D4</f>
@@ -2134,11 +2134,11 @@
       </c>
       <c r="M8">
         <f>IF($G8=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f>IF($G8=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="16">
         <v>1</v>
@@ -2160,26 +2160,26 @@
       </c>
       <c r="D9" s="7">
         <f>SUM(N9:N19)+0.5*(N8+N20)</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="F9" s="1">
         <f>F10+inputs!$D$8</f>
         <v>55</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <f>IF(G9=1,+inputs!$D$11,+IF(G9=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>83.790811161505644</v>
+        <v>99.816885099092303</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>3.241837767698871E-4</v>
+        <v>3.662298018153933E-4</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
@@ -2187,11 +2187,11 @@
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M20" si="2">IF($G9=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N20" si="3">IF($G9=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <v>2</v>
@@ -2213,19 +2213,19 @@
         <v>50</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <f>IF(G10=1,+inputs!$D$11,+IF(G10=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.563413442666786</v>
+        <v>99.634226999926994</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>3.2454795437677716E-4</v>
+        <v>3.6531619833061769E-4</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -2233,11 +2233,11 @@
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="16">
         <v>3</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(D7:D9)/(D7/C7+D8/C8+D9/C9)</f>
-        <v>2.380952380952381E-4</v>
+        <v>2.1563342318059299E-4</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="1">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59.34583966580923</v>
+        <v>99.452193103339653</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>3.2544846641020028E-4</v>
+        <v>3.6406779317468363E-4</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C12" s="9">
         <f>C11*(I8-I20)/(F8-F20)</f>
-        <v>3.9682539682539683E-4</v>
+        <v>3.593890386343216E-4</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="1">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59.160345040997541</v>
+        <v>99.270897951801771</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>3.7098924962337775E-4</v>
+        <v>3.6259030307576266E-4</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -2366,11 +2366,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.952104721120953</v>
+        <v>99.090399107608604</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>4.1648063975317486E-4</v>
+        <v>3.6099768838633394E-4</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.721200356839582</v>
+        <v>98.910697111752683</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>4.618087285627439E-4</v>
+        <v>3.5940399171184372E-4</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -2444,23 +2444,23 @@
         <v>25</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <f>IF(G15=1,+inputs!$D$11,+IF(G15=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55.697895185981977</v>
+        <v>89.836515370754356</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>4.651238724396314E-4</v>
+        <v>3.5937353429696346E-4</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="16">
         <v>8</v>
@@ -2487,23 +2487,23 @@
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <f>IF(G16=1,+inputs!$D$11,+IF(G16=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49.864492384667237</v>
+        <v>71.86850480624112</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>4.6667222410517919E-4</v>
+        <v>3.5936021129026472E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
         <v>9</v>
@@ -2530,23 +2530,23 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
         <f>IF(G17=1,+inputs!$D$11,+IF(G17=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44.013972242319369</v>
+        <v>53.901019691996233</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>4.6804161138782946E-4</v>
+        <v>3.5934970228489773E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="16">
         <v>10</v>
@@ -2573,23 +2573,23 @@
         <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
         <f>IF(G18=1,+inputs!$D$11,+IF(G18=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38.148609113739589</v>
+        <v>35.933893490435949</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>4.6922905028638242E-4</v>
+        <v>3.5934252403120565E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
         <v>11</v>
@@ -2624,11 +2624,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.47606714691667</v>
+        <v>17.966946745217975</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>4.6952134293833336E-4</v>
+        <v>3.593389349043595E-4</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>4.6952134293833342E-4</v>
+        <v>3.593389349043595E-4</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>

--- a/Working/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
+++ b/Working/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starl\GW_Modelling\homework-starliviakaska\Working\HW1_BoxModel_Excel\Starter_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20E3BD1-1384-4611-8CFE-4FF0FB744CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2EF09-DBDC-4BF8-9261-C40A42719B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
     <sheet name="model and key plot" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
